--- a/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/jobcard_new.xlsx
+++ b/سرویس های دوره ای تجهیزات گندله سازی/pm_jobcard_latest/jobcard_new.xlsx
@@ -8395,7 +8395,7 @@
     <t>کارخانه</t>
   </si>
   <si>
-    <t>Hour</t>
+    <t>Minute</t>
   </si>
   <si>
     <t>Code</t>
